--- a/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 36_it_IT.xlsx
+++ b/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 36_it_IT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2df41c4215c7d11/VolumesExcel/it_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/DocumentenLaptop/Programming/Github/DanielNoord/ProjectInventarisGezantschappen/inputs/VolumesExcel_06_07_2022/it_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_066DD969E542540111B961165C89767E08C0E715" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C21E952A-CDCD-42D1-BA39-AD0364CB3FD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F623DE1-2A31-B448-BD2A-50CA6EC25371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="560">
   <si>
     <t>ms311_title</t>
   </si>
@@ -1699,6 +1699,9 @@
   </si>
   <si>
     <t>Fasc. 6 Stampati diversi</t>
+  </si>
+  <si>
+    <t>ms311_31_5_239c</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1772,7 +1775,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1793,9 +1795,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1833,9 +1835,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1868,26 +1870,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1920,26 +1905,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2113,23 +2081,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J654"/>
+  <dimension ref="A1:J655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="95" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B314" sqref="B314"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="95" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B268" sqref="B268"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="93" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="43.36328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="93" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="43.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2108,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2151,12 +2119,12 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2167,19 +2135,19 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6">
@@ -2201,11 +2169,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7">
@@ -2227,11 +2195,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8">
@@ -2253,19 +2221,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10">
@@ -2287,19 +2255,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12">
@@ -2321,11 +2289,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C13">
@@ -2347,11 +2315,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C14">
@@ -2373,22 +2341,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C15">
         <v>1852</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C16">
@@ -2410,22 +2378,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C17">
         <v>1852</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C18">
@@ -2447,19 +2415,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C20">
@@ -2481,19 +2449,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C22">
@@ -2515,11 +2483,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C23">
@@ -2541,11 +2509,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C24">
@@ -2567,11 +2535,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C25">
@@ -2593,11 +2561,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C26">
@@ -2619,22 +2587,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C27">
         <v>1852</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C28">
@@ -2656,22 +2624,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C29">
         <v>1852</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C30">
@@ -2693,22 +2661,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C31">
         <v>1852</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C32">
@@ -2730,11 +2698,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C33">
@@ -2756,11 +2724,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C34">
@@ -2782,11 +2750,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C35">
@@ -2808,11 +2776,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C36">
@@ -2834,19 +2802,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C38">
@@ -2868,11 +2836,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C39">
@@ -2894,11 +2862,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C40">
@@ -2920,19 +2888,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C42">
@@ -2954,11 +2922,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C43">
@@ -2980,11 +2948,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C44">
@@ -3006,19 +2974,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C46">
@@ -3040,19 +3008,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C48">
@@ -3074,11 +3042,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C49">
@@ -3100,11 +3068,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C50">
@@ -3126,19 +3094,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C52">
@@ -3160,19 +3128,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C54">
@@ -3194,19 +3162,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C56">
@@ -3228,11 +3196,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C57">
@@ -3254,33 +3222,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C59">
         <v>1852</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C61">
@@ -3302,11 +3270,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C62">
@@ -3328,11 +3296,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C63">
@@ -3354,11 +3322,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C64">
@@ -3380,11 +3348,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C65">
@@ -3406,19 +3374,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C67">
@@ -3434,19 +3402,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>102</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C69">
@@ -3468,11 +3436,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C70">
@@ -3494,11 +3462,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>109</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C71">
@@ -3520,11 +3488,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>112</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C72">
@@ -3546,11 +3514,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C73">
@@ -3572,19 +3540,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C75">
@@ -3606,19 +3574,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C77">
@@ -3640,19 +3608,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C79">
@@ -3674,19 +3642,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C81">
@@ -3708,19 +3676,19 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>133</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C83">
@@ -3742,19 +3710,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C85">
@@ -3776,11 +3744,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>140</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C86">
@@ -3802,11 +3770,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>141</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C87">
@@ -3828,11 +3796,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>142</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C88">
@@ -3854,11 +3822,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>143</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C89">
@@ -3880,11 +3848,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>144</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C90">
@@ -3906,11 +3874,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>145</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C91">
@@ -3932,19 +3900,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>148</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>149</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C93">
@@ -3966,11 +3934,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>150</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C94">
@@ -3992,11 +3960,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>151</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C95">
@@ -4018,19 +3986,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>152</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C97">
@@ -4052,19 +4020,19 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>155</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C99">
@@ -4086,11 +4054,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>156</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C100">
@@ -4112,11 +4080,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>157</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C101">
@@ -4138,11 +4106,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>158</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C102">
@@ -4164,11 +4132,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C103">
@@ -4190,19 +4158,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C105">
@@ -4224,19 +4192,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>163</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>120</v>
       </c>
       <c r="C107">
@@ -4258,19 +4226,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>164</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>165</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C109">
@@ -4289,11 +4257,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>168</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C110">
@@ -4306,11 +4274,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>169</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C111">
@@ -4332,11 +4300,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>170</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C112">
@@ -4358,11 +4326,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C113">
@@ -4384,19 +4352,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>172</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>173</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C115">
@@ -4418,11 +4386,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>174</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C116">
@@ -4444,11 +4412,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>175</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C117">
@@ -4461,11 +4429,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>177</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C118">
@@ -4481,11 +4449,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>178</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>179</v>
       </c>
       <c r="C119">
@@ -4507,19 +4475,19 @@
         <v>167</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>180</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>181</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C121">
@@ -4541,41 +4509,41 @@
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>182</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>183</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C123">
         <v>1846</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>185</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C124">
         <v>1846</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>186</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C125">
@@ -4588,11 +4556,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>187</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>176</v>
       </c>
       <c r="C126">
@@ -4605,11 +4573,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>188</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C127">
@@ -4628,19 +4596,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>189</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>190</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>191</v>
       </c>
       <c r="C129">
@@ -4659,11 +4627,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>193</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C130">
@@ -4685,11 +4653,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>196</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C131">
@@ -4711,11 +4679,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>197</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C132">
@@ -4737,11 +4705,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>198</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C133">
@@ -4763,19 +4731,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>201</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>202</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C135">
@@ -4797,11 +4765,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>204</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C136">
@@ -4823,11 +4791,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>205</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C137">
@@ -4849,11 +4817,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>206</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C138">
@@ -4875,11 +4843,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>207</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C139">
@@ -4901,19 +4869,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>208</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>209</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C141">
@@ -4935,19 +4903,19 @@
         <v>135</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>210</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>211</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C143">
@@ -4969,11 +4937,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>212</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C144">
@@ -4995,11 +4963,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>213</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C145">
@@ -5021,11 +4989,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>217</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C146">
@@ -5047,115 +5015,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>220</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C148">
         <v>1852</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>221</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C149">
         <v>1852</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>222</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C150">
         <v>1852</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>223</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>224</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C152">
         <v>1852</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>225</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C153">
         <v>1852</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>226</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="5" t="s">
         <v>219</v>
       </c>
       <c r="C154">
         <v>1852</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
+    <row r="155" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C156">
         <v>1852</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
+    <row r="157" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>230</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>231</v>
       </c>
       <c r="C158">
@@ -5177,11 +5145,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>233</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C159">
@@ -5194,11 +5162,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>235</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>236</v>
       </c>
       <c r="C160">
@@ -5220,19 +5188,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>238</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>240</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>241</v>
       </c>
       <c r="C162">
@@ -5254,19 +5222,19 @@
         <v>237</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>242</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>243</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C164">
@@ -5285,11 +5253,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>245</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C165">
@@ -5308,11 +5276,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>246</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>247</v>
       </c>
       <c r="C166">
@@ -5334,11 +5302,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>249</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>247</v>
       </c>
       <c r="C167">
@@ -5360,11 +5328,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>250</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>251</v>
       </c>
       <c r="C168">
@@ -5386,11 +5354,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>253</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>254</v>
       </c>
       <c r="C169">
@@ -5412,11 +5380,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>255</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>251</v>
       </c>
       <c r="C170">
@@ -5438,19 +5406,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>256</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>257</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>258</v>
       </c>
       <c r="C172">
@@ -5472,11 +5440,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>260</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>258</v>
       </c>
       <c r="C173">
@@ -5498,11 +5466,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>261</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>262</v>
       </c>
       <c r="C174">
@@ -5524,11 +5492,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>264</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C175">
@@ -5547,11 +5515,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>267</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C176">
@@ -5573,11 +5541,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>269</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C177">
@@ -5599,7 +5567,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>270</v>
       </c>
@@ -5616,7 +5584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -5633,11 +5601,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>273</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>274</v>
       </c>
       <c r="C180">
@@ -5659,11 +5627,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>276</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C181">
@@ -5685,52 +5653,52 @@
         <v>275</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="7" t="s">
+    <row r="182" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>279</v>
       </c>
       <c r="C183">
         <v>1852</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="7" t="s">
+    <row r="184" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="7" t="s">
+    <row r="185" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>282</v>
       </c>
       <c r="C185">
         <v>1852</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="7" t="s">
+    <row r="186" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>284</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C187">
@@ -5752,19 +5720,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>288</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>289</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C189">
@@ -5786,19 +5754,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>290</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>291</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C191">
@@ -5820,11 +5788,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>292</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C192">
@@ -5846,11 +5814,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>293</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C193">
@@ -5872,11 +5840,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>294</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C194">
@@ -5898,11 +5866,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>295</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C195">
@@ -5924,19 +5892,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>296</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>297</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C197">
@@ -5958,11 +5926,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>298</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C198">
@@ -5984,11 +5952,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>299</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C199">
@@ -6010,11 +5978,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>300</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C200">
@@ -6036,11 +6004,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>301</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C201">
@@ -6062,11 +6030,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>302</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C202">
@@ -6088,7 +6056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>303</v>
       </c>
@@ -6096,11 +6064,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>304</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="5" t="s">
         <v>305</v>
       </c>
       <c r="C204">
@@ -6122,19 +6090,19 @@
         <v>287</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>306</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>307</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C206">
@@ -6156,37 +6124,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>308</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="6"/>
-    </row>
-    <row r="209" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="7" t="s">
+    <row r="208" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="5"/>
+    </row>
+    <row r="209" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="5" t="s">
         <v>310</v>
       </c>
       <c r="C209">
         <v>1852</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="7" t="s">
+    <row r="210" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>312</v>
       </c>
@@ -6212,7 +6180,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>314</v>
       </c>
@@ -6238,7 +6206,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>315</v>
       </c>
@@ -6264,7 +6232,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>316</v>
       </c>
@@ -6284,7 +6252,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>318</v>
       </c>
@@ -6301,7 +6269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>320</v>
       </c>
@@ -6327,7 +6295,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>321</v>
       </c>
@@ -6353,7 +6321,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>322</v>
       </c>
@@ -6379,11 +6347,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="2"/>
     </row>
-    <row r="220" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="7" t="s">
+    <row r="220" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="s">
         <v>323</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -6393,19 +6361,19 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="7" t="s">
+    <row r="221" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
         <v>325</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>326</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="5" t="s">
         <v>327</v>
       </c>
       <c r="C222">
@@ -6427,11 +6395,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>329</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="5" t="s">
         <v>327</v>
       </c>
       <c r="C223">
@@ -6453,11 +6421,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>330</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="5" t="s">
         <v>331</v>
       </c>
       <c r="C224">
@@ -6479,41 +6447,41 @@
         <v>328</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>332</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="6"/>
-    </row>
-    <row r="227" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="7" t="s">
+    <row r="226" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="5"/>
+    </row>
+    <row r="227" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C227">
         <v>1852</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="7" t="s">
+    <row r="228" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
         <v>335</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>336</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>337</v>
       </c>
       <c r="C229">
@@ -6535,11 +6503,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>339</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="5" t="s">
         <v>337</v>
       </c>
       <c r="C230">
@@ -6561,11 +6529,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>340</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C231">
@@ -6587,19 +6555,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>341</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>342</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C233">
@@ -6621,11 +6589,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>343</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C234">
@@ -6647,11 +6615,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>344</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="5" t="s">
         <v>345</v>
       </c>
       <c r="C235">
@@ -6673,19 +6641,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>347</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>348</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C237">
@@ -6707,19 +6675,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>349</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>350</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C239">
@@ -6741,11 +6709,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>351</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C240">
@@ -6767,11 +6735,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>352</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C241">
@@ -6793,19 +6761,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>353</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>354</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C243">
@@ -6827,19 +6795,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>355</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>356</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C245">
@@ -6861,19 +6829,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>357</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>358</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C247">
@@ -6895,19 +6863,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>359</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>360</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C249">
@@ -6929,11 +6897,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>361</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C250">
@@ -6955,11 +6923,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>362</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C251">
@@ -6981,19 +6949,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>363</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>364</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C253">
@@ -7015,11 +6983,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>365</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C254">
@@ -7041,11 +7009,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>366</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C255">
@@ -7067,82 +7035,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>367</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="6"/>
-    </row>
-    <row r="258" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="5"/>
+    </row>
+    <row r="258" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>368</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C258">
         <v>1852</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>370</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>371</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="5" t="s">
         <v>372</v>
       </c>
       <c r="C260">
         <v>1849</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>373</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>374</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C262">
         <v>1849</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>376</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C263">
         <v>1849</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>377</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="5" t="s">
         <v>378</v>
       </c>
       <c r="C264">
@@ -7155,19 +7123,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>379</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>380</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="5" t="s">
         <v>381</v>
       </c>
       <c r="C266">
@@ -7183,11 +7151,11 @@
         <v>382</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>383</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="5" t="s">
         <v>381</v>
       </c>
       <c r="C267">
@@ -7203,11 +7171,11 @@
         <v>382</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>384</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" s="5" t="s">
         <v>381</v>
       </c>
       <c r="C268">
@@ -7223,12 +7191,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>385</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>386</v>
+        <v>559</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="C269">
         <v>1852</v>
@@ -7237,17 +7205,17 @@
         <v>2</v>
       </c>
       <c r="E269">
-        <v>16</v>
-      </c>
-      <c r="H269" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="F269" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>387</v>
-      </c>
-      <c r="B270" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B270" s="5" t="s">
         <v>386</v>
       </c>
       <c r="C270">
@@ -7263,119 +7231,113 @@
         <v>139</v>
       </c>
     </row>
-    <row r="271" spans="1:10" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="4" t="s">
+    <row r="271" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>387</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C271">
+        <v>1852</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>16</v>
+      </c>
+      <c r="H271" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B272" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J271" s="7"/>
-    </row>
-    <row r="272" spans="1:10" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="4" t="s">
+      <c r="J272" s="6"/>
+    </row>
+    <row r="273" spans="1:10" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C272" s="4">
-        <v>1852</v>
-      </c>
-      <c r="J272" s="7"/>
-    </row>
-    <row r="273" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>391</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C273">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C273" s="4">
+        <v>1852</v>
+      </c>
+      <c r="J273" s="6"/>
+    </row>
+    <row r="274" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>391</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C274">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>392</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B275" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
+    <row r="276" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>393</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C275">
-        <v>1852</v>
-      </c>
-      <c r="D275">
+      <c r="C276">
+        <v>1852</v>
+      </c>
+      <c r="D276">
         <v>3</v>
       </c>
-      <c r="E275">
+      <c r="E276">
         <v>9</v>
       </c>
-      <c r="F275" t="s">
-        <v>8</v>
-      </c>
-      <c r="G275" t="s">
+      <c r="F276" t="s">
+        <v>8</v>
+      </c>
+      <c r="G276" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
+    <row r="277" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>396</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B277" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
+    <row r="278" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>397</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B278" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C277">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
+      <c r="C278">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>399</v>
       </c>
-      <c r="B278" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C278">
-        <v>1852</v>
-      </c>
-      <c r="D278">
-        <v>5</v>
-      </c>
-      <c r="E278">
-        <v>21</v>
-      </c>
-      <c r="F278" t="s">
-        <v>8</v>
-      </c>
-      <c r="G278" t="s">
-        <v>401</v>
-      </c>
-      <c r="H278" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>402</v>
-      </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C279">
@@ -7397,11 +7359,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>403</v>
-      </c>
-      <c r="B280" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C280">
@@ -7423,11 +7385,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>404</v>
-      </c>
-      <c r="B281" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C281">
@@ -7449,11 +7411,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>405</v>
-      </c>
-      <c r="B282" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B282" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C282">
@@ -7475,11 +7437,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>406</v>
-      </c>
-      <c r="B283" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B283" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C283">
@@ -7501,11 +7463,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>407</v>
-      </c>
-      <c r="B284" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B284" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C284">
@@ -7527,11 +7489,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>408</v>
-      </c>
-      <c r="B285" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C285">
@@ -7553,28 +7515,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>409</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="C286">
         <v>1852</v>
+      </c>
+      <c r="D286">
+        <v>5</v>
+      </c>
+      <c r="E286">
+        <v>21</v>
+      </c>
+      <c r="F286" t="s">
+        <v>8</v>
       </c>
       <c r="G286" t="s">
         <v>401</v>
       </c>
       <c r="H286" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>412</v>
-      </c>
-      <c r="B287" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B287" s="5" t="s">
         <v>410</v>
       </c>
       <c r="C287">
@@ -7587,35 +7558,29 @@
         <v>411</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>412</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C288">
+        <v>1852</v>
+      </c>
+      <c r="G288" t="s">
+        <v>401</v>
+      </c>
+      <c r="H288" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
         <v>413</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B289" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="C288">
-        <v>1852</v>
-      </c>
-      <c r="D288">
-        <v>6</v>
-      </c>
-      <c r="E288">
-        <v>15</v>
-      </c>
-      <c r="G288" t="s">
-        <v>415</v>
-      </c>
-      <c r="H288" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>416</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="C289">
         <v>1852</v>
@@ -7633,64 +7598,67 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>416</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C290">
+        <v>1852</v>
+      </c>
+      <c r="D290">
+        <v>6</v>
+      </c>
+      <c r="E290">
+        <v>15</v>
+      </c>
+      <c r="G290" t="s">
+        <v>415</v>
+      </c>
+      <c r="H290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>418</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B291" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
+    <row r="292" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>419</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B292" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C291">
-        <v>1852</v>
-      </c>
-      <c r="D291">
+      <c r="C292">
+        <v>1852</v>
+      </c>
+      <c r="D292">
         <v>7</v>
       </c>
-      <c r="E291">
+      <c r="E292">
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
+    <row r="293" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
         <v>421</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B293" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
+    <row r="294" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
         <v>422</v>
       </c>
-      <c r="B293" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C293">
-        <v>1852</v>
-      </c>
-      <c r="D293">
-        <v>7</v>
-      </c>
-      <c r="E293">
-        <v>31</v>
-      </c>
-      <c r="F293" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>424</v>
-      </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" s="5" t="s">
         <v>423</v>
       </c>
       <c r="C294">
@@ -7706,37 +7674,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>424</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C295">
+        <v>1852</v>
+      </c>
+      <c r="D295">
+        <v>7</v>
+      </c>
+      <c r="E295">
+        <v>31</v>
+      </c>
+      <c r="F295" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>425</v>
       </c>
-      <c r="B295" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C295">
-        <v>1852</v>
-      </c>
-      <c r="D295">
-        <v>10</v>
-      </c>
-      <c r="E295">
-        <v>2</v>
-      </c>
-      <c r="F295" t="s">
-        <v>8</v>
-      </c>
-      <c r="G295" t="s">
-        <v>427</v>
-      </c>
-      <c r="H295" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>428</v>
-      </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C296">
@@ -7758,11 +7720,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>429</v>
-      </c>
-      <c r="B297" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B297" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C297">
@@ -7784,11 +7746,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>430</v>
-      </c>
-      <c r="B298" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B298" s="5" t="s">
         <v>426</v>
       </c>
       <c r="C298">
@@ -7810,83 +7772,98 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>430</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C299">
+        <v>1852</v>
+      </c>
+      <c r="D299">
+        <v>10</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299" t="s">
+        <v>8</v>
+      </c>
+      <c r="G299" t="s">
+        <v>427</v>
+      </c>
+      <c r="H299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>431</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B300" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C299">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
+      <c r="C300">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>433</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B301" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C300">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
+      <c r="C301">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>434</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B302" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C301">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
+      <c r="C302">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>435</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B303" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C302">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
+      <c r="C303">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
         <v>436</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B304" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C303">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
+      <c r="C304">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>437</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B305" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
+    <row r="306" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>438</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="C305">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>440</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>439</v>
@@ -7895,9 +7872,9 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>439</v>
@@ -7906,9 +7883,9 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>439</v>
@@ -7917,53 +7894,44 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B309" s="2"/>
-    </row>
-    <row r="310" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="7" t="s">
+    <row r="309" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>442</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C309">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B311" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C310">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="7" t="s">
+      <c r="C311">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B312" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
+    <row r="313" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>446</v>
       </c>
-      <c r="B312" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C312">
-        <v>1852</v>
-      </c>
-      <c r="D312">
-        <v>4</v>
-      </c>
-      <c r="E312">
-        <v>13</v>
-      </c>
-      <c r="G312" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>448</v>
-      </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="5" t="s">
         <v>447</v>
       </c>
       <c r="C313">
@@ -7979,11 +7947,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>449</v>
-      </c>
-      <c r="B314" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B314" s="5" t="s">
         <v>447</v>
       </c>
       <c r="C314">
@@ -7999,11 +7967,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>450</v>
-      </c>
-      <c r="B315" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B315" s="5" t="s">
         <v>447</v>
       </c>
       <c r="C315">
@@ -8019,12 +7987,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>451</v>
-      </c>
-      <c r="B316" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="C316">
         <v>1852</v>
@@ -8033,17 +8001,17 @@
         <v>4</v>
       </c>
       <c r="E316">
-        <v>20</v>
-      </c>
-      <c r="I316" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="G316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>454</v>
-      </c>
-      <c r="B317" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B317" s="5" t="s">
         <v>452</v>
       </c>
       <c r="C317">
@@ -8059,12 +8027,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>455</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="C318">
         <v>1852</v>
@@ -8073,14 +8041,17 @@
         <v>4</v>
       </c>
       <c r="E318">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="I318" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>457</v>
-      </c>
-      <c r="B319" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B319" s="5" t="s">
         <v>456</v>
       </c>
       <c r="C319">
@@ -8093,12 +8064,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>458</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>456</v>
       </c>
       <c r="C320">
         <v>1852</v>
@@ -8107,14 +8078,14 @@
         <v>4</v>
       </c>
       <c r="E320">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>460</v>
-      </c>
-      <c r="B321" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B321" s="5" t="s">
         <v>459</v>
       </c>
       <c r="C321">
@@ -8127,28 +8098,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>460</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C322">
+        <v>1852</v>
+      </c>
+      <c r="D322">
+        <v>4</v>
+      </c>
+      <c r="E322">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>461</v>
       </c>
-      <c r="B322" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C322">
-        <v>1852</v>
-      </c>
-      <c r="D322">
-        <v>5</v>
-      </c>
-      <c r="E322">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>463</v>
-      </c>
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="5" t="s">
         <v>462</v>
       </c>
       <c r="C323">
@@ -8161,29 +8132,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>463</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C324">
+        <v>1852</v>
+      </c>
+      <c r="D324">
+        <v>5</v>
+      </c>
+      <c r="E324">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
         <v>464</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B325" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="C324">
-        <v>1852</v>
-      </c>
-      <c r="D324">
-        <v>6</v>
-      </c>
-      <c r="E324">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>466</v>
-      </c>
-      <c r="B325" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="C325">
         <v>1852</v>
@@ -8192,14 +8163,14 @@
         <v>6</v>
       </c>
       <c r="E325">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>468</v>
-      </c>
-      <c r="B326" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B326" s="5" t="s">
         <v>467</v>
       </c>
       <c r="C326">
@@ -8212,11 +8183,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>469</v>
-      </c>
-      <c r="B327" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B327" s="5" t="s">
         <v>467</v>
       </c>
       <c r="C327">
@@ -8229,36 +8200,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>469</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C328">
+        <v>1852</v>
+      </c>
+      <c r="D328">
+        <v>6</v>
+      </c>
+      <c r="E328">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>470</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B329" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
+    <row r="330" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>471</v>
       </c>
-      <c r="B329" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C329">
-        <v>1852</v>
-      </c>
-      <c r="D329">
-        <v>7</v>
-      </c>
-      <c r="E329">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>473</v>
-      </c>
-      <c r="B330" s="6" t="s">
+      <c r="B330" s="5" t="s">
         <v>472</v>
       </c>
       <c r="C330">
@@ -8271,12 +8242,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>474</v>
-      </c>
-      <c r="B331" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>472</v>
       </c>
       <c r="C331">
         <v>1852</v>
@@ -8285,17 +8256,14 @@
         <v>7</v>
       </c>
       <c r="E331">
-        <v>1</v>
-      </c>
-      <c r="G331" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>476</v>
-      </c>
-      <c r="B332" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B332" s="5" t="s">
         <v>475</v>
       </c>
       <c r="C332">
@@ -8311,11 +8279,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>477</v>
-      </c>
-      <c r="B333" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B333" s="5" t="s">
         <v>475</v>
       </c>
       <c r="C333">
@@ -8331,11 +8299,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>478</v>
-      </c>
-      <c r="B334" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B334" s="5" t="s">
         <v>475</v>
       </c>
       <c r="C334">
@@ -8351,12 +8319,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>479</v>
-      </c>
-      <c r="B335" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="C335">
         <v>1852</v>
@@ -8365,17 +8333,17 @@
         <v>7</v>
       </c>
       <c r="E335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G335" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>481</v>
-      </c>
-      <c r="B336" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B336" s="5" t="s">
         <v>480</v>
       </c>
       <c r="C336">
@@ -8391,11 +8359,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>482</v>
-      </c>
-      <c r="B337" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B337" s="5" t="s">
         <v>480</v>
       </c>
       <c r="C337">
@@ -8411,11 +8379,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>483</v>
-      </c>
-      <c r="B338" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B338" s="5" t="s">
         <v>480</v>
       </c>
       <c r="C338">
@@ -8431,12 +8399,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>484</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>552</v>
+        <v>483</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="C339">
         <v>1852</v>
@@ -8445,20 +8413,17 @@
         <v>7</v>
       </c>
       <c r="E339">
-        <v>20</v>
-      </c>
-      <c r="F339" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="G339" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>486</v>
-      </c>
-      <c r="B340" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B340" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C340">
@@ -8477,11 +8442,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>487</v>
-      </c>
-      <c r="B341" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B341" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C341">
@@ -8500,11 +8465,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>488</v>
-      </c>
-      <c r="B342" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B342" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C342">
@@ -8523,11 +8488,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>489</v>
-      </c>
-      <c r="B343" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B343" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C343">
@@ -8546,11 +8511,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>490</v>
-      </c>
-      <c r="B344" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="B344" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C344">
@@ -8569,11 +8534,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>491</v>
-      </c>
-      <c r="B345" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B345" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C345">
@@ -8592,11 +8557,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>492</v>
-      </c>
-      <c r="B346" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B346" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C346">
@@ -8615,11 +8580,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>493</v>
-      </c>
-      <c r="B347" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B347" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C347">
@@ -8638,11 +8603,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>494</v>
-      </c>
-      <c r="B348" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B348" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C348">
@@ -8661,11 +8626,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>495</v>
-      </c>
-      <c r="B349" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B349" s="5" t="s">
         <v>552</v>
       </c>
       <c r="C349">
@@ -8684,12 +8649,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>496</v>
-      </c>
-      <c r="B350" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="C350">
         <v>1852</v>
@@ -8698,17 +8663,20 @@
         <v>7</v>
       </c>
       <c r="E350">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="F350" t="s">
+        <v>117</v>
       </c>
       <c r="G350" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>499</v>
-      </c>
-      <c r="B351" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B351" s="5" t="s">
         <v>497</v>
       </c>
       <c r="C351">
@@ -8724,11 +8692,11 @@
         <v>498</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>500</v>
-      </c>
-      <c r="B352" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B352" s="5" t="s">
         <v>497</v>
       </c>
       <c r="C352">
@@ -8744,11 +8712,11 @@
         <v>498</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>501</v>
-      </c>
-      <c r="B353" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B353" s="5" t="s">
         <v>497</v>
       </c>
       <c r="C353">
@@ -8764,11 +8732,11 @@
         <v>498</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>502</v>
-      </c>
-      <c r="B354" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B354" s="5" t="s">
         <v>497</v>
       </c>
       <c r="C354">
@@ -8784,11 +8752,11 @@
         <v>498</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>503</v>
-      </c>
-      <c r="B355" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B355" s="5" t="s">
         <v>497</v>
       </c>
       <c r="C355">
@@ -8804,28 +8772,31 @@
         <v>498</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
+        <v>503</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C356">
+        <v>1852</v>
+      </c>
+      <c r="D356">
+        <v>7</v>
+      </c>
+      <c r="E356">
+        <v>31</v>
+      </c>
+      <c r="G356" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>504</v>
       </c>
-      <c r="B356" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C356">
-        <v>1852</v>
-      </c>
-      <c r="D356">
-        <v>9</v>
-      </c>
-      <c r="E356">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>506</v>
-      </c>
-      <c r="B357" s="6" t="s">
+      <c r="B357" s="5" t="s">
         <v>505</v>
       </c>
       <c r="C357">
@@ -8838,11 +8809,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>507</v>
-      </c>
-      <c r="B358" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>505</v>
       </c>
       <c r="C358">
@@ -8855,11 +8826,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>508</v>
-      </c>
-      <c r="B359" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B359" s="5" t="s">
         <v>505</v>
       </c>
       <c r="C359">
@@ -8872,12 +8843,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>509</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>505</v>
       </c>
       <c r="C360">
         <v>1852</v>
@@ -8889,11 +8860,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>511</v>
-      </c>
-      <c r="B361" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B361" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C361">
@@ -8906,11 +8877,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>512</v>
-      </c>
-      <c r="B362" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B362" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C362">
@@ -8923,11 +8894,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>513</v>
-      </c>
-      <c r="B363" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B363" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C363">
@@ -8940,11 +8911,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>514</v>
-      </c>
-      <c r="B364" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B364" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C364">
@@ -8957,11 +8928,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>515</v>
-      </c>
-      <c r="B365" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B365" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C365">
@@ -8974,11 +8945,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>516</v>
-      </c>
-      <c r="B366" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B366" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C366">
@@ -8991,11 +8962,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>517</v>
-      </c>
-      <c r="B367" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B367" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C367">
@@ -9008,11 +8979,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>518</v>
-      </c>
-      <c r="B368" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B368" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C368">
@@ -9025,11 +8996,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>519</v>
-      </c>
-      <c r="B369" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B369" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C369">
@@ -9042,11 +9013,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>520</v>
-      </c>
-      <c r="B370" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B370" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C370">
@@ -9059,11 +9030,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>521</v>
-      </c>
-      <c r="B371" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B371" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C371">
@@ -9076,11 +9047,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>522</v>
-      </c>
-      <c r="B372" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B372" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C372">
@@ -9093,11 +9064,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>523</v>
-      </c>
-      <c r="B373" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B373" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C373">
@@ -9110,11 +9081,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>524</v>
-      </c>
-      <c r="B374" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B374" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C374">
@@ -9127,11 +9098,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>525</v>
-      </c>
-      <c r="B375" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B375" s="5" t="s">
         <v>510</v>
       </c>
       <c r="C375">
@@ -9144,97 +9115,94 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
+        <v>525</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C376">
+        <v>1852</v>
+      </c>
+      <c r="D376">
+        <v>9</v>
+      </c>
+      <c r="E376">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>526</v>
       </c>
-      <c r="B376" s="6" t="s">
+      <c r="B377" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C376">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
+      <c r="C377">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>528</v>
       </c>
-      <c r="B377" s="6" t="s">
+      <c r="B378" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C377">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
+      <c r="C378">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
         <v>529</v>
       </c>
-      <c r="B378" s="6" t="s">
+      <c r="B379" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C378">
+      <c r="C379">
         <v>1952</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
+    <row r="380" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>530</v>
       </c>
-      <c r="B379" s="6" t="s">
+      <c r="B380" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C379">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
+      <c r="C380">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
         <v>531</v>
       </c>
-      <c r="B380" s="6" t="s">
+      <c r="B381" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C380">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
+      <c r="C381">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>533</v>
       </c>
-      <c r="B381" s="6" t="s">
+      <c r="B382" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C381">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
+      <c r="C382">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>534</v>
       </c>
-      <c r="B382" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="C382">
-        <v>1852</v>
-      </c>
-      <c r="D382">
-        <v>12</v>
-      </c>
-      <c r="E382">
-        <v>28</v>
-      </c>
-      <c r="I382" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>536</v>
-      </c>
-      <c r="B383" s="6" t="s">
+      <c r="B383" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C383">
@@ -9250,67 +9218,70 @@
         <v>411</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
+        <v>536</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C384">
+        <v>1852</v>
+      </c>
+      <c r="D384">
+        <v>12</v>
+      </c>
+      <c r="E384">
+        <v>28</v>
+      </c>
+      <c r="I384" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
         <v>537</v>
       </c>
-      <c r="B384" s="6" t="s">
+      <c r="B385" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C384">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
+      <c r="C385">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
         <v>539</v>
       </c>
-      <c r="B385" s="6" t="s">
+      <c r="B386" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C385">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
+      <c r="C386">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>541</v>
       </c>
-      <c r="B386" s="6" t="s">
+      <c r="B387" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="C386">
-        <v>1852</v>
-      </c>
-      <c r="D386">
-        <v>10</v>
-      </c>
-      <c r="E386">
+      <c r="C387">
+        <v>1852</v>
+      </c>
+      <c r="D387">
+        <v>10</v>
+      </c>
+      <c r="E387">
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
+    <row r="388" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
         <v>542</v>
       </c>
-      <c r="B387" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C387">
-        <v>1852</v>
-      </c>
-      <c r="D387">
-        <v>10</v>
-      </c>
-      <c r="E387">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>544</v>
-      </c>
-      <c r="B388" s="6" t="s">
+      <c r="B388" s="5" t="s">
         <v>543</v>
       </c>
       <c r="C388">
@@ -9323,28 +9294,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
+        <v>544</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C389">
+        <v>1852</v>
+      </c>
+      <c r="D389">
+        <v>10</v>
+      </c>
+      <c r="E389">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
         <v>545</v>
       </c>
-      <c r="B389" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C389">
-        <v>1852</v>
-      </c>
-      <c r="D389">
-        <v>11</v>
-      </c>
-      <c r="E389">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
-        <v>546</v>
-      </c>
-      <c r="B390" s="6" t="s">
+      <c r="B390" s="5" t="s">
         <v>543</v>
       </c>
       <c r="C390">
@@ -9357,11 +9328,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>547</v>
-      </c>
-      <c r="B391" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B391" s="5" t="s">
         <v>543</v>
       </c>
       <c r="C391">
@@ -9371,14 +9342,14 @@
         <v>11</v>
       </c>
       <c r="E391">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>548</v>
-      </c>
-      <c r="B392" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B392" s="5" t="s">
         <v>543</v>
       </c>
       <c r="C392">
@@ -9391,804 +9362,821 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
+        <v>548</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C393">
+        <v>1852</v>
+      </c>
+      <c r="D393">
+        <v>11</v>
+      </c>
+      <c r="E393">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>549</v>
       </c>
-      <c r="B393" s="6" t="s">
+      <c r="B394" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="C393">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
+      <c r="C394">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>551</v>
       </c>
-      <c r="B394" s="6" t="s">
+      <c r="B395" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B395" s="6"/>
-    </row>
-    <row r="396" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B396" s="6"/>
-    </row>
-    <row r="397" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="6"/>
-    </row>
-    <row r="398" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="6"/>
-    </row>
-    <row r="399" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B399" s="6"/>
-    </row>
-    <row r="400" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B400" s="6"/>
-    </row>
-    <row r="401" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B401" s="6"/>
-    </row>
-    <row r="402" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B402" s="6"/>
-    </row>
-    <row r="403" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="6"/>
-    </row>
-    <row r="404" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B404" s="6"/>
-    </row>
-    <row r="405" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B405" s="6"/>
-    </row>
-    <row r="406" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B406" s="6"/>
-    </row>
-    <row r="407" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B407" s="6"/>
-    </row>
-    <row r="408" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B408" s="6"/>
-    </row>
-    <row r="409" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B409" s="6"/>
-    </row>
-    <row r="410" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B410" s="6"/>
-    </row>
-    <row r="411" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B411" s="6"/>
-    </row>
-    <row r="412" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B412" s="6"/>
-    </row>
-    <row r="413" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B413" s="6"/>
-    </row>
-    <row r="414" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B414" s="6"/>
-    </row>
-    <row r="415" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B415" s="6"/>
-    </row>
-    <row r="416" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B416" s="6"/>
-    </row>
-    <row r="417" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B417" s="6"/>
-    </row>
-    <row r="418" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B418" s="6"/>
-    </row>
-    <row r="419" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B419" s="6"/>
-    </row>
-    <row r="420" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B420" s="6"/>
-    </row>
-    <row r="421" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B421" s="6"/>
-    </row>
-    <row r="422" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B422" s="6"/>
-    </row>
-    <row r="423" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B423" s="6"/>
-    </row>
-    <row r="424" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B424" s="6"/>
-    </row>
-    <row r="425" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B425" s="6"/>
-    </row>
-    <row r="426" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B426" s="6"/>
-    </row>
-    <row r="427" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B427" s="6"/>
-    </row>
-    <row r="428" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B428" s="6"/>
-    </row>
-    <row r="429" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B429" s="6"/>
-    </row>
-    <row r="430" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B430" s="6"/>
-    </row>
-    <row r="431" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B431" s="6"/>
-    </row>
-    <row r="432" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B432" s="6"/>
-    </row>
-    <row r="433" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B433" s="6"/>
-    </row>
-    <row r="434" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B434" s="6"/>
-    </row>
-    <row r="435" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B435" s="6"/>
-    </row>
-    <row r="436" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B436" s="6"/>
-    </row>
-    <row r="437" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B437" s="6"/>
-    </row>
-    <row r="438" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B438" s="6"/>
-    </row>
-    <row r="439" spans="2:2" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B439" s="1"/>
-    </row>
-    <row r="440" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B440" s="6"/>
-    </row>
-    <row r="441" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B441" s="6"/>
-    </row>
-    <row r="442" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B442" s="6"/>
-    </row>
-    <row r="443" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B443" s="6"/>
-    </row>
-    <row r="444" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B444" s="6"/>
-    </row>
-    <row r="445" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B445" s="6"/>
-    </row>
-    <row r="446" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B446" s="6"/>
-    </row>
-    <row r="447" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B447" s="6"/>
-    </row>
-    <row r="448" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B448" s="6"/>
-    </row>
-    <row r="449" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B449" s="6"/>
-    </row>
-    <row r="450" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B450" s="6"/>
-    </row>
-    <row r="451" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B451" s="6"/>
-    </row>
-    <row r="452" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B452" s="6"/>
-    </row>
-    <row r="453" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B453" s="6"/>
-    </row>
-    <row r="454" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B454" s="6"/>
-    </row>
-    <row r="455" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B455" s="6"/>
-    </row>
-    <row r="456" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B456" s="6"/>
-    </row>
-    <row r="457" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B457" s="6"/>
-    </row>
-    <row r="458" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B458" s="6"/>
-    </row>
-    <row r="459" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B459" s="6"/>
-    </row>
-    <row r="460" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B460" s="6"/>
-    </row>
-    <row r="461" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B461" s="6"/>
-    </row>
-    <row r="462" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B462" s="6"/>
-    </row>
-    <row r="463" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B463" s="6"/>
-    </row>
-    <row r="464" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B464" s="6"/>
-    </row>
-    <row r="465" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B465" s="1"/>
-    </row>
-    <row r="466" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B466" s="6"/>
-    </row>
-    <row r="467" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B467" s="6"/>
-    </row>
-    <row r="468" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B468" s="6"/>
-    </row>
-    <row r="469" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B469" s="6"/>
-    </row>
-    <row r="470" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B470" s="6"/>
-    </row>
-    <row r="471" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B471" s="6"/>
-    </row>
-    <row r="472" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B472" s="6"/>
-    </row>
-    <row r="473" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B473" s="6"/>
-    </row>
-    <row r="474" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B474" s="6"/>
-    </row>
-    <row r="475" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B475" s="6"/>
-    </row>
-    <row r="476" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B476" s="6"/>
-    </row>
-    <row r="477" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B477" s="6"/>
-    </row>
-    <row r="478" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B478" s="6"/>
-    </row>
-    <row r="479" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B479" s="1"/>
-    </row>
-    <row r="480" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="5"/>
+    </row>
+    <row r="397" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="5"/>
+    </row>
+    <row r="398" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="5"/>
+    </row>
+    <row r="400" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="5"/>
+    </row>
+    <row r="401" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="5"/>
+    </row>
+    <row r="402" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="5"/>
+    </row>
+    <row r="403" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="5"/>
+    </row>
+    <row r="404" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B404" s="5"/>
+    </row>
+    <row r="405" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="5"/>
+    </row>
+    <row r="406" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="5"/>
+    </row>
+    <row r="407" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="5"/>
+    </row>
+    <row r="408" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B408" s="5"/>
+    </row>
+    <row r="409" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B409" s="5"/>
+    </row>
+    <row r="410" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B411" s="5"/>
+    </row>
+    <row r="412" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B412" s="5"/>
+    </row>
+    <row r="413" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B413" s="5"/>
+    </row>
+    <row r="414" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B414" s="5"/>
+    </row>
+    <row r="415" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B415" s="5"/>
+    </row>
+    <row r="416" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B416" s="5"/>
+    </row>
+    <row r="417" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B417" s="5"/>
+    </row>
+    <row r="418" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B418" s="5"/>
+    </row>
+    <row r="419" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B419" s="5"/>
+    </row>
+    <row r="420" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B420" s="5"/>
+    </row>
+    <row r="421" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B421" s="5"/>
+    </row>
+    <row r="422" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B422" s="5"/>
+    </row>
+    <row r="423" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B423" s="5"/>
+    </row>
+    <row r="424" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B424" s="5"/>
+    </row>
+    <row r="425" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B425" s="5"/>
+    </row>
+    <row r="426" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B426" s="5"/>
+    </row>
+    <row r="427" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B427" s="5"/>
+    </row>
+    <row r="428" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B428" s="5"/>
+    </row>
+    <row r="429" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B429" s="5"/>
+    </row>
+    <row r="430" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B430" s="5"/>
+    </row>
+    <row r="431" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B431" s="5"/>
+    </row>
+    <row r="432" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B432" s="5"/>
+    </row>
+    <row r="433" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B433" s="5"/>
+    </row>
+    <row r="434" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B434" s="5"/>
+    </row>
+    <row r="435" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B435" s="5"/>
+    </row>
+    <row r="436" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B436" s="5"/>
+    </row>
+    <row r="437" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B437" s="5"/>
+    </row>
+    <row r="438" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B438" s="5"/>
+    </row>
+    <row r="439" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B439" s="5"/>
+    </row>
+    <row r="440" spans="2:2" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B440" s="1"/>
+    </row>
+    <row r="441" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B441" s="5"/>
+    </row>
+    <row r="442" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B442" s="5"/>
+    </row>
+    <row r="443" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B443" s="5"/>
+    </row>
+    <row r="444" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B444" s="5"/>
+    </row>
+    <row r="445" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B445" s="5"/>
+    </row>
+    <row r="446" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B446" s="5"/>
+    </row>
+    <row r="447" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B447" s="5"/>
+    </row>
+    <row r="448" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B448" s="5"/>
+    </row>
+    <row r="449" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B449" s="5"/>
+    </row>
+    <row r="450" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B450" s="5"/>
+    </row>
+    <row r="451" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B451" s="5"/>
+    </row>
+    <row r="452" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B452" s="5"/>
+    </row>
+    <row r="453" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B453" s="5"/>
+    </row>
+    <row r="454" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B454" s="5"/>
+    </row>
+    <row r="455" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B455" s="5"/>
+    </row>
+    <row r="456" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B456" s="5"/>
+    </row>
+    <row r="457" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B457" s="5"/>
+    </row>
+    <row r="458" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B458" s="5"/>
+    </row>
+    <row r="459" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B459" s="5"/>
+    </row>
+    <row r="460" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B460" s="5"/>
+    </row>
+    <row r="461" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B461" s="5"/>
+    </row>
+    <row r="462" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B462" s="5"/>
+    </row>
+    <row r="463" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B463" s="5"/>
+    </row>
+    <row r="464" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B464" s="5"/>
+    </row>
+    <row r="465" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B465" s="5"/>
+    </row>
+    <row r="466" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B466" s="1"/>
+    </row>
+    <row r="467" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B467" s="5"/>
+    </row>
+    <row r="468" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B468" s="5"/>
+    </row>
+    <row r="469" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B469" s="5"/>
+    </row>
+    <row r="470" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B470" s="5"/>
+    </row>
+    <row r="471" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B471" s="5"/>
+    </row>
+    <row r="472" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B472" s="5"/>
+    </row>
+    <row r="473" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B473" s="5"/>
+    </row>
+    <row r="474" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B474" s="5"/>
+    </row>
+    <row r="475" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B475" s="5"/>
+    </row>
+    <row r="476" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B476" s="5"/>
+    </row>
+    <row r="477" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B477" s="5"/>
+    </row>
+    <row r="478" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B478" s="5"/>
+    </row>
+    <row r="479" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B479" s="5"/>
+    </row>
+    <row r="480" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="1"/>
     </row>
-    <row r="481" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B481" s="6"/>
-    </row>
-    <row r="482" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B482" s="6"/>
-    </row>
-    <row r="483" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B483" s="6"/>
-    </row>
-    <row r="484" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B484" s="6"/>
-    </row>
-    <row r="485" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B485" s="6"/>
-    </row>
-    <row r="486" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B486" s="6"/>
-    </row>
-    <row r="487" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B487" s="6"/>
-    </row>
-    <row r="488" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B488" s="6"/>
-    </row>
-    <row r="489" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B489" s="6"/>
-    </row>
-    <row r="490" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B490" s="6"/>
-    </row>
-    <row r="491" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B491" s="6"/>
-    </row>
-    <row r="492" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B492" s="6"/>
-    </row>
-    <row r="493" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B493" s="6"/>
-    </row>
-    <row r="494" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B494" s="6"/>
-    </row>
-    <row r="495" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B495" s="6"/>
-    </row>
-    <row r="496" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B496" s="6"/>
-    </row>
-    <row r="497" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B497" s="1"/>
-    </row>
-    <row r="498" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B481" s="1"/>
+    </row>
+    <row r="482" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B482" s="5"/>
+    </row>
+    <row r="483" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B483" s="5"/>
+    </row>
+    <row r="484" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B484" s="5"/>
+    </row>
+    <row r="485" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B485" s="5"/>
+    </row>
+    <row r="486" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B486" s="5"/>
+    </row>
+    <row r="487" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B487" s="5"/>
+    </row>
+    <row r="488" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B488" s="5"/>
+    </row>
+    <row r="489" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B489" s="5"/>
+    </row>
+    <row r="490" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B490" s="5"/>
+    </row>
+    <row r="491" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B491" s="5"/>
+    </row>
+    <row r="492" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B492" s="5"/>
+    </row>
+    <row r="493" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B493" s="5"/>
+    </row>
+    <row r="494" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B494" s="5"/>
+    </row>
+    <row r="495" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B495" s="5"/>
+    </row>
+    <row r="496" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B496" s="5"/>
+    </row>
+    <row r="497" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B497" s="5"/>
+    </row>
+    <row r="498" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="1"/>
     </row>
-    <row r="499" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B499" s="6"/>
-    </row>
-    <row r="500" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B500" s="6"/>
-    </row>
-    <row r="501" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B501" s="6"/>
-    </row>
-    <row r="502" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B502" s="6"/>
-    </row>
-    <row r="503" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B503" s="6"/>
-    </row>
-    <row r="504" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B504" s="6"/>
-    </row>
-    <row r="505" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B505" s="6"/>
-    </row>
-    <row r="506" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B506" s="6"/>
-    </row>
-    <row r="507" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B507" s="6"/>
-    </row>
-    <row r="508" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B508" s="6"/>
-    </row>
-    <row r="509" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B509" s="6"/>
-    </row>
-    <row r="510" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B510" s="6"/>
-    </row>
-    <row r="511" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B511" s="6"/>
-    </row>
-    <row r="512" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B512" s="6"/>
-    </row>
-    <row r="513" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B513" s="6"/>
-    </row>
-    <row r="514" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B514" s="6"/>
-    </row>
-    <row r="515" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B515" s="6"/>
-    </row>
-    <row r="516" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B516" s="6"/>
-    </row>
-    <row r="517" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B517" s="6"/>
-    </row>
-    <row r="518" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B518" s="1"/>
-    </row>
-    <row r="519" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B519" s="6"/>
-    </row>
-    <row r="520" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B520" s="6"/>
-    </row>
-    <row r="521" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B521" s="6"/>
-    </row>
-    <row r="522" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B522" s="6"/>
-    </row>
-    <row r="523" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B523" s="6"/>
-    </row>
-    <row r="524" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B524" s="6"/>
-    </row>
-    <row r="525" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B525" s="6"/>
-    </row>
-    <row r="526" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B526" s="6"/>
-    </row>
-    <row r="527" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B527" s="6"/>
-    </row>
-    <row r="528" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B528" s="6"/>
-    </row>
-    <row r="529" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B529" s="6"/>
-    </row>
-    <row r="530" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B530" s="6"/>
-    </row>
-    <row r="531" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B531" s="6"/>
-    </row>
-    <row r="532" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B532" s="6"/>
-    </row>
-    <row r="533" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B533" s="6"/>
-    </row>
-    <row r="534" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B534" s="6"/>
-    </row>
-    <row r="535" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B535" s="6"/>
-    </row>
-    <row r="536" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B536" s="1"/>
-    </row>
-    <row r="537" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B537" s="6"/>
-    </row>
-    <row r="538" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B538" s="6"/>
-    </row>
-    <row r="539" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B539" s="6"/>
-    </row>
-    <row r="540" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B540" s="6"/>
-    </row>
-    <row r="541" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B541" s="6"/>
-    </row>
-    <row r="542" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B542" s="6"/>
-    </row>
-    <row r="543" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B543" s="6"/>
-    </row>
-    <row r="544" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B544" s="6"/>
-    </row>
-    <row r="545" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B545" s="6"/>
-    </row>
-    <row r="546" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B546" s="1"/>
-    </row>
-    <row r="547" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B500" s="5"/>
+    </row>
+    <row r="501" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B501" s="5"/>
+    </row>
+    <row r="502" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B502" s="5"/>
+    </row>
+    <row r="503" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B503" s="5"/>
+    </row>
+    <row r="504" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B504" s="5"/>
+    </row>
+    <row r="505" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B505" s="5"/>
+    </row>
+    <row r="506" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B506" s="5"/>
+    </row>
+    <row r="507" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B507" s="5"/>
+    </row>
+    <row r="508" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B508" s="5"/>
+    </row>
+    <row r="509" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B509" s="5"/>
+    </row>
+    <row r="510" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B510" s="5"/>
+    </row>
+    <row r="511" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B511" s="5"/>
+    </row>
+    <row r="512" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B512" s="5"/>
+    </row>
+    <row r="513" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B513" s="5"/>
+    </row>
+    <row r="514" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B514" s="5"/>
+    </row>
+    <row r="515" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B515" s="5"/>
+    </row>
+    <row r="516" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B516" s="5"/>
+    </row>
+    <row r="517" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B517" s="5"/>
+    </row>
+    <row r="518" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B518" s="5"/>
+    </row>
+    <row r="519" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B519" s="1"/>
+    </row>
+    <row r="520" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B520" s="5"/>
+    </row>
+    <row r="521" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B521" s="5"/>
+    </row>
+    <row r="522" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B522" s="5"/>
+    </row>
+    <row r="523" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B523" s="5"/>
+    </row>
+    <row r="524" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B524" s="5"/>
+    </row>
+    <row r="525" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B525" s="5"/>
+    </row>
+    <row r="526" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B526" s="5"/>
+    </row>
+    <row r="527" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B527" s="5"/>
+    </row>
+    <row r="528" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B528" s="5"/>
+    </row>
+    <row r="529" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B529" s="5"/>
+    </row>
+    <row r="530" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B530" s="5"/>
+    </row>
+    <row r="531" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B531" s="5"/>
+    </row>
+    <row r="532" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B532" s="5"/>
+    </row>
+    <row r="533" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B533" s="5"/>
+    </row>
+    <row r="534" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B534" s="5"/>
+    </row>
+    <row r="535" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B535" s="5"/>
+    </row>
+    <row r="536" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B536" s="5"/>
+    </row>
+    <row r="537" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B537" s="1"/>
+    </row>
+    <row r="538" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B538" s="5"/>
+    </row>
+    <row r="539" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B539" s="5"/>
+    </row>
+    <row r="540" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B540" s="5"/>
+    </row>
+    <row r="541" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B541" s="5"/>
+    </row>
+    <row r="542" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B542" s="5"/>
+    </row>
+    <row r="543" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B543" s="5"/>
+    </row>
+    <row r="544" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B544" s="5"/>
+    </row>
+    <row r="545" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B545" s="5"/>
+    </row>
+    <row r="546" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B546" s="5"/>
+    </row>
+    <row r="547" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="1"/>
     </row>
-    <row r="548" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="1"/>
     </row>
-    <row r="549" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B549" s="6"/>
-    </row>
-    <row r="550" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B550" s="6"/>
-    </row>
-    <row r="551" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B551" s="6"/>
-    </row>
-    <row r="552" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B552" s="1"/>
-    </row>
-    <row r="553" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B550" s="5"/>
+    </row>
+    <row r="551" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B551" s="5"/>
+    </row>
+    <row r="552" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B552" s="5"/>
+    </row>
+    <row r="553" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="1"/>
     </row>
-    <row r="554" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B554" s="6"/>
-    </row>
-    <row r="555" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B555" s="6"/>
-    </row>
-    <row r="556" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B556" s="6"/>
-    </row>
-    <row r="557" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B557" s="6"/>
-    </row>
-    <row r="558" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B558" s="6"/>
-    </row>
-    <row r="559" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B559" s="6"/>
-    </row>
-    <row r="560" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B560" s="6"/>
-    </row>
-    <row r="561" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B561" s="6"/>
-    </row>
-    <row r="562" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B562" s="1"/>
-    </row>
-    <row r="563" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B555" s="5"/>
+    </row>
+    <row r="556" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B556" s="5"/>
+    </row>
+    <row r="557" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B557" s="5"/>
+    </row>
+    <row r="558" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B558" s="5"/>
+    </row>
+    <row r="559" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B559" s="5"/>
+    </row>
+    <row r="560" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B560" s="5"/>
+    </row>
+    <row r="561" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B561" s="5"/>
+    </row>
+    <row r="562" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B562" s="5"/>
+    </row>
+    <row r="563" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="1"/>
     </row>
-    <row r="564" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B564" s="6"/>
-    </row>
-    <row r="565" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B565" s="6"/>
-    </row>
-    <row r="566" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B566" s="6"/>
-    </row>
-    <row r="567" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B567" s="6"/>
-    </row>
-    <row r="568" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B568" s="6"/>
-    </row>
-    <row r="569" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B569" s="6"/>
-    </row>
-    <row r="570" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B570" s="6"/>
-    </row>
-    <row r="571" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B571" s="6"/>
-    </row>
-    <row r="572" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B572" s="6"/>
-    </row>
-    <row r="573" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B573" s="1"/>
-    </row>
-    <row r="574" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B565" s="5"/>
+    </row>
+    <row r="566" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B566" s="5"/>
+    </row>
+    <row r="567" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B567" s="5"/>
+    </row>
+    <row r="568" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B568" s="5"/>
+    </row>
+    <row r="569" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B569" s="5"/>
+    </row>
+    <row r="570" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B570" s="5"/>
+    </row>
+    <row r="571" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B571" s="5"/>
+    </row>
+    <row r="572" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B572" s="5"/>
+    </row>
+    <row r="573" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B573" s="5"/>
+    </row>
+    <row r="574" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="1"/>
     </row>
-    <row r="575" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B575" s="1"/>
     </row>
-    <row r="576" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B576" s="1"/>
     </row>
-    <row r="577" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B577" s="6"/>
-    </row>
-    <row r="578" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B578" s="6"/>
-    </row>
-    <row r="579" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B579" s="6"/>
-    </row>
-    <row r="580" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B580" s="6"/>
-    </row>
-    <row r="581" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B581" s="1"/>
-    </row>
-    <row r="582" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B577" s="1"/>
+    </row>
+    <row r="578" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B578" s="5"/>
+    </row>
+    <row r="579" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B579" s="5"/>
+    </row>
+    <row r="580" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B580" s="5"/>
+    </row>
+    <row r="581" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B581" s="5"/>
+    </row>
+    <row r="582" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="1"/>
     </row>
-    <row r="583" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="1"/>
     </row>
-    <row r="584" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="1"/>
     </row>
-    <row r="585" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B585" s="1"/>
     </row>
-    <row r="586" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="1"/>
     </row>
-    <row r="587" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B587" s="6"/>
-    </row>
-    <row r="588" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B588" s="6"/>
-    </row>
-    <row r="589" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B589" s="6"/>
-    </row>
-    <row r="590" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B590" s="6"/>
-    </row>
-    <row r="591" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B591" s="6"/>
-    </row>
-    <row r="592" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B592" s="6"/>
-    </row>
-    <row r="593" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B593" s="6"/>
-    </row>
-    <row r="594" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B594" s="6"/>
-    </row>
-    <row r="595" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B595" s="1"/>
-    </row>
-    <row r="596" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B596" s="6"/>
-    </row>
-    <row r="597" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B597" s="6"/>
-    </row>
-    <row r="598" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B598" s="6"/>
-    </row>
-    <row r="599" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B599" s="6"/>
-    </row>
-    <row r="600" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B600" s="1"/>
-    </row>
-    <row r="601" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B587" s="1"/>
+    </row>
+    <row r="588" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B588" s="5"/>
+    </row>
+    <row r="589" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B589" s="5"/>
+    </row>
+    <row r="590" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B590" s="5"/>
+    </row>
+    <row r="591" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B591" s="5"/>
+    </row>
+    <row r="592" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B592" s="5"/>
+    </row>
+    <row r="593" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B593" s="5"/>
+    </row>
+    <row r="594" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B594" s="5"/>
+    </row>
+    <row r="595" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B595" s="5"/>
+    </row>
+    <row r="596" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B597" s="5"/>
+    </row>
+    <row r="598" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B598" s="5"/>
+    </row>
+    <row r="599" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B599" s="5"/>
+    </row>
+    <row r="600" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B600" s="5"/>
+    </row>
+    <row r="601" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B601" s="1"/>
     </row>
-    <row r="602" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="1"/>
     </row>
-    <row r="603" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B603" s="1"/>
     </row>
-    <row r="604" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="1"/>
     </row>
-    <row r="605" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B605" s="6"/>
-    </row>
-    <row r="606" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B606" s="6"/>
-    </row>
-    <row r="607" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B607" s="6"/>
-    </row>
-    <row r="608" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B608" s="6"/>
-    </row>
-    <row r="609" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B609" s="6"/>
-    </row>
-    <row r="610" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B610" s="6"/>
-    </row>
-    <row r="611" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B611" s="6"/>
-    </row>
-    <row r="612" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B612" s="6"/>
-    </row>
-    <row r="613" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B613" s="1"/>
-    </row>
-    <row r="614" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B605" s="1"/>
+    </row>
+    <row r="606" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B606" s="5"/>
+    </row>
+    <row r="607" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B607" s="5"/>
+    </row>
+    <row r="608" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B608" s="5"/>
+    </row>
+    <row r="609" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B609" s="5"/>
+    </row>
+    <row r="610" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B610" s="5"/>
+    </row>
+    <row r="611" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B611" s="5"/>
+    </row>
+    <row r="612" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B612" s="5"/>
+    </row>
+    <row r="613" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B613" s="5"/>
+    </row>
+    <row r="614" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="1"/>
     </row>
-    <row r="615" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B615" s="6"/>
-    </row>
-    <row r="616" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B616" s="6"/>
-    </row>
-    <row r="617" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B617" s="1"/>
-    </row>
-    <row r="618" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B618" s="6"/>
-    </row>
-    <row r="619" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B619" s="6"/>
-    </row>
-    <row r="620" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B620" s="1"/>
-    </row>
-    <row r="621" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B615" s="1"/>
+    </row>
+    <row r="616" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B616" s="5"/>
+    </row>
+    <row r="617" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B617" s="5"/>
+    </row>
+    <row r="618" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B618" s="1"/>
+    </row>
+    <row r="619" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B619" s="5"/>
+    </row>
+    <row r="620" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B620" s="5"/>
+    </row>
+    <row r="621" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="1"/>
     </row>
-    <row r="622" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="1"/>
     </row>
-    <row r="623" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B623" s="1"/>
     </row>
-    <row r="624" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="1"/>
     </row>
-    <row r="625" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B625" s="6"/>
-    </row>
-    <row r="626" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B626" s="6"/>
-    </row>
-    <row r="627" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B627" s="1"/>
-    </row>
-    <row r="628" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B625" s="1"/>
+    </row>
+    <row r="626" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B626" s="5"/>
+    </row>
+    <row r="627" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B627" s="5"/>
+    </row>
+    <row r="628" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="1"/>
     </row>
-    <row r="629" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="1"/>
     </row>
-    <row r="630" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="1"/>
     </row>
-    <row r="631" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="1"/>
     </row>
-    <row r="632" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="1"/>
     </row>
-    <row r="633" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="1"/>
     </row>
-    <row r="634" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B634" s="6"/>
-    </row>
-    <row r="635" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B635" s="6"/>
-    </row>
-    <row r="636" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B636" s="1"/>
-    </row>
-    <row r="637" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B634" s="1"/>
+    </row>
+    <row r="635" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B635" s="5"/>
+    </row>
+    <row r="636" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B636" s="5"/>
+    </row>
+    <row r="637" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="1"/>
     </row>
-    <row r="638" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="1"/>
     </row>
-    <row r="639" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B639" s="6"/>
-    </row>
-    <row r="640" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B640" s="6"/>
-    </row>
-    <row r="641" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B641" s="1"/>
-    </row>
-    <row r="642" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B639" s="1"/>
+    </row>
+    <row r="640" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B640" s="5"/>
+    </row>
+    <row r="641" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B641" s="5"/>
+    </row>
+    <row r="642" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="1"/>
     </row>
-    <row r="643" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="1"/>
     </row>
-    <row r="644" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B644" s="1"/>
     </row>
-    <row r="645" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B645" s="6"/>
-    </row>
-    <row r="646" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B646" s="6"/>
-    </row>
-    <row r="647" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B647" s="1"/>
-    </row>
-    <row r="648" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B645" s="1"/>
+    </row>
+    <row r="646" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B646" s="5"/>
+    </row>
+    <row r="647" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B647" s="5"/>
+    </row>
+    <row r="648" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="1"/>
     </row>
-    <row r="649" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B649" s="6"/>
-    </row>
-    <row r="650" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B650" s="6"/>
-    </row>
-    <row r="651" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B651" s="6"/>
-    </row>
-    <row r="652" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B652" s="6"/>
-    </row>
-    <row r="653" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B653" s="6"/>
-    </row>
-    <row r="654" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B654" s="6"/>
+    <row r="649" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B649" s="1"/>
+    </row>
+    <row r="650" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B650" s="5"/>
+    </row>
+    <row r="651" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B651" s="5"/>
+    </row>
+    <row r="652" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B652" s="5"/>
+    </row>
+    <row r="653" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B653" s="5"/>
+    </row>
+    <row r="654" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B654" s="5"/>
+    </row>
+    <row r="655" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B655" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10202,7 +10190,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10214,7 +10202,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
